--- a/CashFlow/HUBS_cashflow.xlsx
+++ b/CashFlow/HUBS_cashflow.xlsx
@@ -694,19 +694,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>3697000.0</v>
+        <v>50000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>802000.0</v>
+        <v>49000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-2764000.0</v>
+        <v>32667000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>2253000.0</v>
+        <v>27026000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>-1313000.0</v>
+        <v>13955000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>9120000.0</v>
